--- a/documents/テスト資料/質問更新ページ_単体テスト.xlsx
+++ b/documents/テスト資料/質問更新ページ_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\テスト資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93964609-14B6-473D-8D9B-3D587FF3368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E48FAF2-43A2-40C8-B390-9D3E44492AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD258A3B-E340-4176-83B1-3BE93211D855}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -434,6 +434,19 @@
     <t>修正内容</t>
     <rPh sb="0" eb="4">
       <t>シュウセイナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォームにrequiredを追加</t>
+  </si>
+  <si>
+    <t>入力フォームにrequiredを追加</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -577,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,9 +607,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -641,7 +651,7 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -652,16 +662,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -674,17 +679,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -697,8 +696,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1020,8 +1017,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}" name="テーブル2" displayName="テーブル2" ref="B22:H26" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B22:H26" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}" name="テーブル2" displayName="テーブル2" ref="B22:H24" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B22:H24" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{29138843-D904-4676-A4D6-07D24B4BF3DD}" name="NO" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{F4DD42E9-F431-4A12-8FBC-11292EB3C321}" name="テスト項目(大)" dataDxfId="5"/>
@@ -1332,9 +1329,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5312975-1390-471A-80BB-D684E35121BB}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1349,10 +1348,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1362,25 +1361,25 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>44369</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1404,22 +1403,22 @@
         <f t="shared" ref="B7:B15" si="0">ROW()-ROW($B$6)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1428,20 +1427,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1450,20 +1449,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1472,20 +1471,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1494,18 +1493,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9">
+      <c r="G11" s="9"/>
+      <c r="H11" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1514,18 +1513,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9">
+      <c r="G12" s="9"/>
+      <c r="H12" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1534,18 +1533,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9">
+      <c r="F13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1554,18 +1553,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9">
+      <c r="G14" s="9"/>
+      <c r="H14" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1574,31 +1573,31 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9">
+      <c r="G15" s="9"/>
+      <c r="H15" s="8">
         <v>44370</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1607,7 +1606,7 @@
       <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1616,7 +1615,7 @@
       <c r="G22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1627,64 +1626,42 @@
       <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="18">
+      <c r="G23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="17">
         <v>44370</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B24" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10" t="s">
+      <c r="D24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="18">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B25" s="4">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="4">
-        <v>13</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
+      <c r="G24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="17">
+        <v>44371</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/テスト資料/質問更新ページ_単体テスト.xlsx
+++ b/documents/テスト資料/質問更新ページ_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\テスト資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E48FAF2-43A2-40C8-B390-9D3E44492AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704FFAF4-632D-4F33-8DCE-8E6271E6A958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD258A3B-E340-4176-83B1-3BE93211D855}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -1331,9 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5312975-1390-471A-80BB-D684E35121BB}">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1503,7 +1501,9 @@
       <c r="F11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="8">
         <v>44370</v>
       </c>
@@ -1523,7 +1523,9 @@
       <c r="F12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H12" s="8">
         <v>44370</v>
       </c>
@@ -1543,7 +1545,9 @@
       <c r="F13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H13" s="8">
         <v>44370</v>
       </c>
@@ -1563,7 +1567,9 @@
       <c r="F14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H14" s="8">
         <v>44370</v>
       </c>
@@ -1583,7 +1589,9 @@
       <c r="F15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H15" s="8">
         <v>44370</v>
       </c>
